--- a/forms/psa_gps/psa_gps.xlsx
+++ b/forms/psa_gps/psa_gps.xlsx
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/forms/psa_gps/psa_gps.xlsx
+++ b/forms/psa_gps/psa_gps.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t>type</t>
   </si>
@@ -255,10 +255,25 @@
     <t>If you have any issues to report, or comments include them here</t>
   </si>
   <si>
-    <t>This is the end of the GPS form. You will collect GPS points when you install soil moisture sensors, the the 'psa_water_sensor_install' form</t>
-  </si>
-  <si>
     <t>Then you will record GPS coordinate of the center of the biomass sampling area (in blue), noted by the yellow X's in the diagram</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>PSA GPS for On-Farm Treatments</t>
+  </si>
+  <si>
+    <t>This is the end of the GPS form. You will collect GPS points when you install soil moisture sensors, the the 'psa  water sensor install' form</t>
+  </si>
+  <si>
+    <t>v3</t>
   </si>
 </sst>
 </file>
@@ -604,17 +619,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
     <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="39.7265625" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" customWidth="1"/>
   </cols>
@@ -655,234 +670,198 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="b">
+      <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
+      <c r="A16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="K16" s="3"/>
     </row>
@@ -891,10 +870,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -909,52 +888,50 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="K20" s="3"/>
     </row>
@@ -963,14 +940,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -978,35 +955,37 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="K23" s="3"/>
     </row>
@@ -1015,11 +994,12 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1032,14 +1012,14 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1047,37 +1027,35 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="A27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="K27" s="3"/>
     </row>
@@ -1086,50 +1064,51 @@
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>42</v>
+      <c r="A30" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="K30" s="3"/>
     </row>
@@ -1138,10 +1117,10 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -1156,52 +1135,50 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>23</v>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
+      <c r="A34" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="K34" s="3"/>
     </row>
@@ -1210,14 +1187,14 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1225,29 +1202,35 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="b">
-        <v>0</v>
+      <c r="E37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1255,15 +1238,81 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E38" t="b">
+      <c r="E42" t="b">
         <v>0</v>
       </c>
     </row>
